--- a/gropin/schema/metadataschema1270.xlsx
+++ b/gropin/schema/metadataschema1270.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Gropin growth model for Yersinia enterocolitica in/on Sausages  Italian-fresh pork _80%_ (gropin ID: 1270 )</t>
+          <t>Gropin secondary growth model for Yersinia enterocolitica in/on Sausages  Italian-fresh pork _80%_ (gropin ID: 1270 )</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>QRA model</t>
+          <t>Predictive</t>
         </is>
       </c>
     </row>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>seq(8.008,19.98001998002,length.out=21)</t>
+          <t>seq(8.008,19.98001998002,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>seq(2.002,11.988011988012,length.out=21)</t>
+          <t>seq(2.002,11.988011988012,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>seq(0,479.52047952048,length.out=21)</t>
+          <t>seq(0,479.52047952048,length.out=10)</t>
         </is>
       </c>
     </row>
